--- a/data/location.xlsx
+++ b/data/location.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\didan\KADA\capstone\plantation recommendation\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DBB8F5E-B4C7-469F-8BF7-F9E4710DA1D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA3991AA-6374-4142-A97F-4D0726814F63}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -453,9 +453,6 @@
     <t>image</t>
   </si>
   <si>
-    <t>DKI Jakarta</t>
-  </si>
-  <si>
     <t>https://lh3.googleusercontent.com/gps-cs-s/AG0ilSziieEvKq5OHZArQFpTS2mn6B5VWMALkEsRqL9HnDA7FmJasSuegi1AaabtRk5Po5Mbr70mNXRkyev54Ckm0wnnnljTXqPMb1dG_z6tUTTu0r7NOzUZSuX4mqQBU8CEsB_2FDJYzw=w408-h293-k-no</t>
   </si>
   <si>
@@ -486,12 +483,6 @@
     <t>A downtown recreation area featuring mangrove boardwalks, fishing ponds, and resident monkeys.</t>
   </si>
   <si>
-    <t>South Sulawesi</t>
-  </si>
-  <si>
-    <t>East Java</t>
-  </si>
-  <si>
     <t>https://storage.googleapis.com/restor2-prod-1-sites/7db11958-d785-4a72-ac70-027681252ec1/482cc62e-6ca2-4c5d-a979-97b365a6969f/600</t>
   </si>
   <si>
@@ -501,9 +492,6 @@
     <t>https://storage.googleapis.com/restor2-prod-1-sites/0d769ea4-13be-4470-9931-d80fc1f05661/b739f807-d229-4809-bd88-9f7ad6dcf517/600</t>
   </si>
   <si>
-    <t>West Kalimantan</t>
-  </si>
-  <si>
     <t>A cluster of small islands in Segara Anakan, home to the Mangrove Arboretum “Kolak Sekancil,” which showcases diverse mangrove species. Recently, mangrove degradation, coastal erosion, and declining marine life have threatened local livelihoods.</t>
   </si>
   <si>
@@ -513,9 +501,6 @@
     <t>A coastal village at the mouth of the Cisadane River in Pakuhaji, Tangerang, featuring mangrove forests, small delta islands, and fishing areas. It offers boat rides through mangrove waterways, scenic coastal views, and community-based eco-tourism promoting mangrove conservation and sustainable land use.</t>
   </si>
   <si>
-    <t>Central Java</t>
-  </si>
-  <si>
     <t>https://lh3.googleusercontent.com/gps-cs-s/AG0ilSznklYiHSOTocfrhTrTrjSQBVaV3Gpk06tWofbeL5a2jspaxttadrGpZWFGE2cSiKf1Kt7p87a9hSX0-8mUI-ZPzqLeUaAeCRz_x5voZBdsl8cw2H6AJ3gSOCb_0-w8mJQEIN08=w408-h544-k-no</t>
   </si>
   <si>
@@ -537,15 +522,9 @@
     <t>Sungai Sintuk, located near Tanjung Puting National Park, is a community-managed conservation area focused on forest restoration after a major 2019 fire, with tree-planting efforts including Nyatoh to restore biodiversity and ecosystem balance.</t>
   </si>
   <si>
-    <t>Central Kalimantan</t>
-  </si>
-  <si>
     <t>The site offers adequate facilities—rest areas, bathrooms, photo spots, a waterfall, villas, and plantations—and is supported by a 10-member local disaster awareness group.</t>
   </si>
   <si>
-    <t>West Java</t>
-  </si>
-  <si>
     <t>https://storage.googleapis.com/restor2-prod-1-sites/10f3da79-c827-4240-a997-5f6c88932bcb/f1895081-3b10-4057-9650-2011e7f066a3/600</t>
   </si>
   <si>
@@ -595,6 +574,27 @@
   </si>
   <si>
     <t>review_4</t>
+  </si>
+  <si>
+    <t>Jakarta</t>
+  </si>
+  <si>
+    <t>JawaTimur</t>
+  </si>
+  <si>
+    <t>SulawesiSelatan</t>
+  </si>
+  <si>
+    <t>KalimantanBarat</t>
+  </si>
+  <si>
+    <t>JawaTengah</t>
+  </si>
+  <si>
+    <t>KalimantanTengah</t>
+  </si>
+  <si>
+    <t>JawaBarat</t>
   </si>
 </sst>
 </file>
@@ -951,7 +951,7 @@
   <dimension ref="A1:U16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="93" zoomScaleNormal="93" workbookViewId="0">
-      <selection activeCell="M8" sqref="M8"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1027,16 +1027,16 @@
         <v>141</v>
       </c>
       <c r="R1" t="s">
-        <v>186</v>
+        <v>179</v>
       </c>
       <c r="S1" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
       <c r="T1" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="U1" t="s">
-        <v>189</v>
+        <v>182</v>
       </c>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.3">
@@ -1044,13 +1044,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>182</v>
+        <v>175</v>
       </c>
       <c r="C2" t="s">
-        <v>142</v>
+        <v>183</v>
       </c>
       <c r="D2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E2" t="s">
         <v>3</v>
@@ -1089,7 +1089,7 @@
         <v>1687</v>
       </c>
       <c r="Q2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="R2" t="s">
         <v>79</v>
@@ -1112,10 +1112,10 @@
         <v>21</v>
       </c>
       <c r="C3" t="s">
-        <v>142</v>
+        <v>183</v>
       </c>
       <c r="D3" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E3" t="s">
         <v>3</v>
@@ -1154,7 +1154,7 @@
         <v>4681</v>
       </c>
       <c r="Q3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="R3" t="s">
         <v>83</v>
@@ -1177,10 +1177,10 @@
         <v>28</v>
       </c>
       <c r="C4" t="s">
-        <v>154</v>
+        <v>184</v>
       </c>
       <c r="D4" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="E4" t="s">
         <v>3</v>
@@ -1213,7 +1213,7 @@
         <v>7965</v>
       </c>
       <c r="Q4" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="R4" t="s">
         <v>87</v>
@@ -1233,13 +1233,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>183</v>
+        <v>176</v>
       </c>
       <c r="C5" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D5" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="E5" t="s">
         <v>3</v>
@@ -1278,7 +1278,7 @@
         <v>729</v>
       </c>
       <c r="Q5" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="R5" t="s">
         <v>91</v>
@@ -1298,13 +1298,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>185</v>
+        <v>178</v>
       </c>
       <c r="C6" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D6" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E6" t="s">
         <v>3</v>
@@ -1343,7 +1343,7 @@
         <v>3271</v>
       </c>
       <c r="Q6" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="R6" t="s">
         <v>95</v>
@@ -1366,10 +1366,10 @@
         <v>40</v>
       </c>
       <c r="C7" t="s">
-        <v>153</v>
+        <v>185</v>
       </c>
       <c r="D7" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E7" t="s">
         <v>3</v>
@@ -1408,7 +1408,7 @@
         <v>260</v>
       </c>
       <c r="Q7" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="R7" t="s">
         <v>99</v>
@@ -1431,10 +1431,10 @@
         <v>44</v>
       </c>
       <c r="C8" t="s">
-        <v>158</v>
+        <v>186</v>
       </c>
       <c r="D8" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="E8" t="s">
         <v>45</v>
@@ -1473,7 +1473,7 @@
         <v>1254</v>
       </c>
       <c r="Q8" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="R8" t="s">
         <v>103</v>
@@ -1493,13 +1493,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>184</v>
+        <v>177</v>
       </c>
       <c r="C9" t="s">
-        <v>162</v>
+        <v>187</v>
       </c>
       <c r="D9" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="E9" t="s">
         <v>3</v>
@@ -1538,7 +1538,7 @@
         <v>826</v>
       </c>
       <c r="Q9" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="R9" t="s">
         <v>107</v>
@@ -1561,10 +1561,10 @@
         <v>52</v>
       </c>
       <c r="C10" t="s">
-        <v>162</v>
+        <v>187</v>
       </c>
       <c r="D10" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="E10" t="s">
         <v>3</v>
@@ -1603,7 +1603,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="R10" t="s">
         <v>111</v>
@@ -1623,13 +1623,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>181</v>
+        <v>174</v>
       </c>
       <c r="C11" t="s">
+        <v>187</v>
+      </c>
+      <c r="D11" t="s">
         <v>162</v>
-      </c>
-      <c r="D11" t="s">
-        <v>167</v>
       </c>
       <c r="E11" t="s">
         <v>3</v>
@@ -1668,7 +1668,7 @@
         <v>32</v>
       </c>
       <c r="Q11" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="R11" t="s">
         <v>115</v>
@@ -1691,10 +1691,10 @@
         <v>60</v>
       </c>
       <c r="C12" t="s">
-        <v>170</v>
+        <v>188</v>
       </c>
       <c r="D12" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="E12" t="s">
         <v>61</v>
@@ -1733,7 +1733,7 @@
         <v>0</v>
       </c>
       <c r="Q12" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="R12" t="s">
         <v>119</v>
@@ -1756,10 +1756,10 @@
         <v>65</v>
       </c>
       <c r="C13" t="s">
-        <v>172</v>
+        <v>189</v>
       </c>
       <c r="D13" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="E13" t="s">
         <v>66</v>
@@ -1798,7 +1798,7 @@
         <v>0</v>
       </c>
       <c r="Q13" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="R13" t="s">
         <v>123</v>
@@ -1821,10 +1821,10 @@
         <v>71</v>
       </c>
       <c r="C14" t="s">
-        <v>172</v>
+        <v>189</v>
       </c>
       <c r="D14" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
       <c r="E14" t="s">
         <v>3</v>
@@ -1863,7 +1863,7 @@
         <v>0</v>
       </c>
       <c r="Q14" t="s">
-        <v>174</v>
+        <v>167</v>
       </c>
       <c r="R14" t="s">
         <v>127</v>
@@ -1886,10 +1886,10 @@
         <v>76</v>
       </c>
       <c r="C15" t="s">
-        <v>172</v>
+        <v>189</v>
       </c>
       <c r="D15" t="s">
-        <v>178</v>
+        <v>171</v>
       </c>
       <c r="E15" t="s">
         <v>3</v>
@@ -1928,7 +1928,7 @@
         <v>87</v>
       </c>
       <c r="Q15" t="s">
-        <v>176</v>
+        <v>169</v>
       </c>
       <c r="R15" t="s">
         <v>131</v>
@@ -1948,13 +1948,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>180</v>
+        <v>173</v>
       </c>
       <c r="C16" t="s">
-        <v>162</v>
+        <v>187</v>
       </c>
       <c r="D16" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
       <c r="E16" t="s">
         <v>3</v>
@@ -1984,7 +1984,7 @@
         <v>145</v>
       </c>
       <c r="Q16" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
       <c r="R16" t="s">
         <v>135</v>
